--- a/summary_tracking_complete.xlsx
+++ b/summary_tracking_complete.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BF78"/>
+  <dimension ref="A1:BI78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -657,6 +657,21 @@
           <t>dist_trav_15min_body_out</t>
         </is>
       </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>dist_trav_20min_body_out</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>dist_trav_25min_body_out</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>dist_trav_30min_body_out</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -844,6 +859,15 @@
       <c r="BF2">
         <v>0</v>
       </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -1031,6 +1055,15 @@
       <c r="BF3">
         <v>0</v>
       </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -1218,6 +1251,15 @@
       <c r="BF4">
         <v>23.1612218944</v>
       </c>
+      <c r="BG4">
+        <v>29.065045753</v>
+      </c>
+      <c r="BH4">
+        <v>43.707970517</v>
+      </c>
+      <c r="BI4">
+        <v>53.959036928</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -1405,6 +1447,15 @@
       <c r="BF5">
         <v>37.7508218761</v>
       </c>
+      <c r="BG5">
+        <v>51.8091856353</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -1592,6 +1643,15 @@
       <c r="BF6">
         <v>51.2659130981</v>
       </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -1779,6 +1839,15 @@
       <c r="BF7">
         <v>0</v>
       </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <v>0</v>
+      </c>
+      <c r="BI7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -1963,6 +2032,15 @@
       <c r="BF8">
         <v>0</v>
       </c>
+      <c r="BG8">
+        <v>0</v>
+      </c>
+      <c r="BH8">
+        <v>0</v>
+      </c>
+      <c r="BI8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -2150,6 +2228,15 @@
       <c r="BF9">
         <v>0</v>
       </c>
+      <c r="BG9">
+        <v>0</v>
+      </c>
+      <c r="BH9">
+        <v>0</v>
+      </c>
+      <c r="BI9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -2337,6 +2424,15 @@
       <c r="BF10">
         <v>76.996396233</v>
       </c>
+      <c r="BG10">
+        <v>97.496614224</v>
+      </c>
+      <c r="BH10">
+        <v>116.082207546</v>
+      </c>
+      <c r="BI10">
+        <v>134.850822292</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -2524,6 +2620,15 @@
       <c r="BF11">
         <v>0</v>
       </c>
+      <c r="BG11">
+        <v>0</v>
+      </c>
+      <c r="BH11">
+        <v>0</v>
+      </c>
+      <c r="BI11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -2708,6 +2813,15 @@
       <c r="BF12">
         <v>0</v>
       </c>
+      <c r="BG12">
+        <v>0</v>
+      </c>
+      <c r="BH12">
+        <v>0</v>
+      </c>
+      <c r="BI12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -2895,6 +3009,15 @@
       <c r="BF13">
         <v>38.5110019221</v>
       </c>
+      <c r="BG13">
+        <v>55.8808590596</v>
+      </c>
+      <c r="BH13">
+        <v>69.97903018229999</v>
+      </c>
+      <c r="BI13">
+        <v>87.1682587289</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -3082,6 +3205,15 @@
       <c r="BF14">
         <v>0</v>
       </c>
+      <c r="BG14">
+        <v>0</v>
+      </c>
+      <c r="BH14">
+        <v>0</v>
+      </c>
+      <c r="BI14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -3269,6 +3401,15 @@
       <c r="BF15">
         <v>0</v>
       </c>
+      <c r="BG15">
+        <v>0</v>
+      </c>
+      <c r="BH15">
+        <v>0</v>
+      </c>
+      <c r="BI15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -3456,6 +3597,15 @@
       <c r="BF16">
         <v>0</v>
       </c>
+      <c r="BG16">
+        <v>0</v>
+      </c>
+      <c r="BH16">
+        <v>0</v>
+      </c>
+      <c r="BI16">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -3643,6 +3793,15 @@
       <c r="BF17">
         <v>49.7084271884</v>
       </c>
+      <c r="BG17">
+        <v>71.51811290969999</v>
+      </c>
+      <c r="BH17">
+        <v>83.4898792445</v>
+      </c>
+      <c r="BI17">
+        <v>94.83043631629999</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -3830,6 +3989,15 @@
       <c r="BF18">
         <v>60.545914894</v>
       </c>
+      <c r="BG18">
+        <v>74.51979790576</v>
+      </c>
+      <c r="BH18">
+        <v>86.63974060347</v>
+      </c>
+      <c r="BI18">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -4017,6 +4185,15 @@
       <c r="BF19">
         <v>0</v>
       </c>
+      <c r="BG19">
+        <v>0</v>
+      </c>
+      <c r="BH19">
+        <v>0</v>
+      </c>
+      <c r="BI19">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -4204,6 +4381,15 @@
       <c r="BF20">
         <v>0</v>
       </c>
+      <c r="BG20">
+        <v>0</v>
+      </c>
+      <c r="BH20">
+        <v>0</v>
+      </c>
+      <c r="BI20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -4388,6 +4574,15 @@
       <c r="BF21">
         <v>0</v>
       </c>
+      <c r="BG21">
+        <v>0</v>
+      </c>
+      <c r="BH21">
+        <v>0</v>
+      </c>
+      <c r="BI21">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -4572,6 +4767,15 @@
       <c r="BF22">
         <v>46.765308828</v>
       </c>
+      <c r="BG22">
+        <v>60.851160999</v>
+      </c>
+      <c r="BH22">
+        <v>75.42470776499999</v>
+      </c>
+      <c r="BI22">
+        <v>85.755232096</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -4756,6 +4960,15 @@
       <c r="BF23">
         <v>88.28189068</v>
       </c>
+      <c r="BG23">
+        <v>113.053870372</v>
+      </c>
+      <c r="BH23">
+        <v>136.9123724667</v>
+      </c>
+      <c r="BI23">
+        <v>156.0485786097</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -4940,6 +5153,15 @@
       <c r="BF24">
         <v>59.18477003</v>
       </c>
+      <c r="BG24">
+        <v>75.196236946</v>
+      </c>
+      <c r="BH24">
+        <v>89.062112793</v>
+      </c>
+      <c r="BI24">
+        <v>106.651700849</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -5124,6 +5346,15 @@
       <c r="BF25">
         <v>0</v>
       </c>
+      <c r="BG25">
+        <v>0</v>
+      </c>
+      <c r="BH25">
+        <v>0</v>
+      </c>
+      <c r="BI25">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -5311,6 +5542,15 @@
       <c r="BF26">
         <v>0</v>
       </c>
+      <c r="BG26">
+        <v>0</v>
+      </c>
+      <c r="BH26">
+        <v>0</v>
+      </c>
+      <c r="BI26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -5498,6 +5738,15 @@
       <c r="BF27">
         <v>0</v>
       </c>
+      <c r="BG27">
+        <v>0</v>
+      </c>
+      <c r="BH27">
+        <v>0</v>
+      </c>
+      <c r="BI27">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -5685,6 +5934,15 @@
       <c r="BF28">
         <v>59.452279021</v>
       </c>
+      <c r="BG28">
+        <v>75.513032749</v>
+      </c>
+      <c r="BH28">
+        <v>94.486585324</v>
+      </c>
+      <c r="BI28">
+        <v>115.689266338</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -5872,6 +6130,15 @@
       <c r="BF29">
         <v>26.3823350634</v>
       </c>
+      <c r="BG29">
+        <v>43.7300336234</v>
+      </c>
+      <c r="BH29">
+        <v>68.1845941214</v>
+      </c>
+      <c r="BI29">
+        <v>85.9006444444</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -6059,6 +6326,15 @@
       <c r="BF30">
         <v>43.1434960101</v>
       </c>
+      <c r="BG30">
+        <v>57.8923168888</v>
+      </c>
+      <c r="BH30">
+        <v>79.8039617264</v>
+      </c>
+      <c r="BI30">
+        <v>97.59974628339999</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -6246,6 +6522,15 @@
       <c r="BF31">
         <v>60.0486597332</v>
       </c>
+      <c r="BG31">
+        <v>80.48688252620001</v>
+      </c>
+      <c r="BH31">
+        <v>81.5736840917</v>
+      </c>
+      <c r="BI31">
+        <v>83.6186979527</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32">
@@ -6433,6 +6718,15 @@
       <c r="BF32">
         <v>59.797433178</v>
       </c>
+      <c r="BG32">
+        <v>81.55335022200001</v>
+      </c>
+      <c r="BH32">
+        <v>93.657725305</v>
+      </c>
+      <c r="BI32">
+        <v>109.372537696</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -6620,6 +6914,15 @@
       <c r="BF33">
         <v>0</v>
       </c>
+      <c r="BG33">
+        <v>0</v>
+      </c>
+      <c r="BH33">
+        <v>0</v>
+      </c>
+      <c r="BI33">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -6807,6 +7110,15 @@
       <c r="BF34">
         <v>81.866519662</v>
       </c>
+      <c r="BG34">
+        <v>106.71652432</v>
+      </c>
+      <c r="BH34">
+        <v>129.559830121</v>
+      </c>
+      <c r="BI34">
+        <v>155.295083402</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -6994,6 +7306,15 @@
       <c r="BF35">
         <v>35.148505659</v>
       </c>
+      <c r="BG35">
+        <v>0</v>
+      </c>
+      <c r="BH35">
+        <v>0</v>
+      </c>
+      <c r="BI35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -7181,6 +7502,15 @@
       <c r="BF36">
         <v>86.61321055400001</v>
       </c>
+      <c r="BG36">
+        <v>117.346722634</v>
+      </c>
+      <c r="BH36">
+        <v>134.538752376</v>
+      </c>
+      <c r="BI36">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -7368,6 +7698,15 @@
       <c r="BF37">
         <v>0</v>
       </c>
+      <c r="BG37">
+        <v>0</v>
+      </c>
+      <c r="BH37">
+        <v>0</v>
+      </c>
+      <c r="BI37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38">
@@ -7555,6 +7894,15 @@
       <c r="BF38">
         <v>60.573625189</v>
       </c>
+      <c r="BG38">
+        <v>82.65475698100001</v>
+      </c>
+      <c r="BH38">
+        <v>107.271065678</v>
+      </c>
+      <c r="BI38">
+        <v>130.592298752</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -7742,6 +8090,15 @@
       <c r="BF39">
         <v>68.43206845820001</v>
       </c>
+      <c r="BG39">
+        <v>91.5006471005</v>
+      </c>
+      <c r="BH39">
+        <v>109.0869068761</v>
+      </c>
+      <c r="BI39">
+        <v>127.5684101063</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40">
@@ -7929,6 +8286,15 @@
       <c r="BF40">
         <v>47.956995273</v>
       </c>
+      <c r="BG40">
+        <v>55.375485867</v>
+      </c>
+      <c r="BH40">
+        <v>55.375485867</v>
+      </c>
+      <c r="BI40">
+        <v>55.375485867</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -8116,6 +8482,15 @@
       <c r="BF41">
         <v>0</v>
       </c>
+      <c r="BG41">
+        <v>0</v>
+      </c>
+      <c r="BH41">
+        <v>0</v>
+      </c>
+      <c r="BI41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -8303,6 +8678,15 @@
       <c r="BF42">
         <v>60.5111875448</v>
       </c>
+      <c r="BG42">
+        <v>79.102341307</v>
+      </c>
+      <c r="BH42">
+        <v>105.3188281953</v>
+      </c>
+      <c r="BI42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -8490,6 +8874,15 @@
       <c r="BF43">
         <v>0</v>
       </c>
+      <c r="BG43">
+        <v>0</v>
+      </c>
+      <c r="BH43">
+        <v>0</v>
+      </c>
+      <c r="BI43">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -8677,6 +9070,15 @@
       <c r="BF44">
         <v>55.461370928</v>
       </c>
+      <c r="BG44">
+        <v>71.281038159</v>
+      </c>
+      <c r="BH44">
+        <v>88.412876766</v>
+      </c>
+      <c r="BI44">
+        <v>103.163733472</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45">
@@ -8864,6 +9266,15 @@
       <c r="BF45">
         <v>36.861188311</v>
       </c>
+      <c r="BG45">
+        <v>52.705811749</v>
+      </c>
+      <c r="BH45">
+        <v>63.016966618</v>
+      </c>
+      <c r="BI45">
+        <v>73.402168129</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46">
@@ -9051,6 +9462,15 @@
       <c r="BF46">
         <v>43.202783916</v>
       </c>
+      <c r="BG46">
+        <v>51.872209149</v>
+      </c>
+      <c r="BH46">
+        <v>66.26112639500001</v>
+      </c>
+      <c r="BI46">
+        <v>80.42873317900001</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -9238,6 +9658,15 @@
       <c r="BF47">
         <v>55.654138764</v>
       </c>
+      <c r="BG47">
+        <v>75.556626194</v>
+      </c>
+      <c r="BH47">
+        <v>94.40515643099999</v>
+      </c>
+      <c r="BI47">
+        <v>109.044053422</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -9422,6 +9851,15 @@
       <c r="BF48">
         <v>77.401083298</v>
       </c>
+      <c r="BG48">
+        <v>97.624565797</v>
+      </c>
+      <c r="BH48">
+        <v>113.303162893</v>
+      </c>
+      <c r="BI48">
+        <v>137.560560446</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -9609,6 +10047,15 @@
       <c r="BF49">
         <v>0</v>
       </c>
+      <c r="BG49">
+        <v>0</v>
+      </c>
+      <c r="BH49">
+        <v>0</v>
+      </c>
+      <c r="BI49">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50">
@@ -9796,6 +10243,15 @@
       <c r="BF50">
         <v>57.250328895</v>
       </c>
+      <c r="BG50">
+        <v>72.61480394500001</v>
+      </c>
+      <c r="BH50">
+        <v>0</v>
+      </c>
+      <c r="BI50">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -9980,6 +10436,15 @@
       <c r="BF51">
         <v>56.405327607</v>
       </c>
+      <c r="BG51">
+        <v>60.252062814</v>
+      </c>
+      <c r="BH51">
+        <v>76.023184211</v>
+      </c>
+      <c r="BI51">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52">
@@ -10164,6 +10629,15 @@
       <c r="BF52">
         <v>64.08830491000001</v>
       </c>
+      <c r="BG52">
+        <v>83.365981737</v>
+      </c>
+      <c r="BH52">
+        <v>101.725452821</v>
+      </c>
+      <c r="BI52">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -10348,6 +10822,15 @@
       <c r="BF53">
         <v>49.93025029</v>
       </c>
+      <c r="BG53">
+        <v>71.552019311</v>
+      </c>
+      <c r="BH53">
+        <v>92.298918266</v>
+      </c>
+      <c r="BI53">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54">
@@ -10532,6 +11015,15 @@
       <c r="BF54">
         <v>79.99727161</v>
       </c>
+      <c r="BG54">
+        <v>93.87450332909999</v>
+      </c>
+      <c r="BH54">
+        <v>115.232602715</v>
+      </c>
+      <c r="BI54">
+        <v>128.1463967038</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55">
@@ -10716,6 +11208,15 @@
       <c r="BF55">
         <v>52.99454133</v>
       </c>
+      <c r="BG55">
+        <v>75.85890205699999</v>
+      </c>
+      <c r="BH55">
+        <v>0</v>
+      </c>
+      <c r="BI55">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56">
@@ -10900,6 +11401,15 @@
       <c r="BF56">
         <v>99.85351828</v>
       </c>
+      <c r="BG56">
+        <v>118.687446339</v>
+      </c>
+      <c r="BH56">
+        <v>135.011023018</v>
+      </c>
+      <c r="BI56">
+        <v>151.616284415</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57">
@@ -11084,6 +11594,15 @@
       <c r="BF57">
         <v>0</v>
       </c>
+      <c r="BG57">
+        <v>0</v>
+      </c>
+      <c r="BH57">
+        <v>0</v>
+      </c>
+      <c r="BI57">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58">
@@ -11268,6 +11787,15 @@
       <c r="BF58">
         <v>41.794881063</v>
       </c>
+      <c r="BG58">
+        <v>52.447994867</v>
+      </c>
+      <c r="BH58">
+        <v>0</v>
+      </c>
+      <c r="BI58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59">
@@ -11452,6 +11980,15 @@
       <c r="BF59">
         <v>65.453929522</v>
       </c>
+      <c r="BG59">
+        <v>85.908890035</v>
+      </c>
+      <c r="BH59">
+        <v>104.010235133</v>
+      </c>
+      <c r="BI59">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60">
@@ -11636,6 +12173,15 @@
       <c r="BF60">
         <v>57.0645241494</v>
       </c>
+      <c r="BG60">
+        <v>0</v>
+      </c>
+      <c r="BH60">
+        <v>0</v>
+      </c>
+      <c r="BI60">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -11823,6 +12369,15 @@
       <c r="BF61">
         <v>53.364162061</v>
       </c>
+      <c r="BG61">
+        <v>0</v>
+      </c>
+      <c r="BH61">
+        <v>0</v>
+      </c>
+      <c r="BI61">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62">
@@ -12010,6 +12565,15 @@
       <c r="BF62">
         <v>64.41886128500001</v>
       </c>
+      <c r="BG62">
+        <v>85.88790569299999</v>
+      </c>
+      <c r="BH62">
+        <v>95.810562464</v>
+      </c>
+      <c r="BI62">
+        <v>99.15457831800001</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63">
@@ -12194,6 +12758,15 @@
       <c r="BF63">
         <v>55.3156272122</v>
       </c>
+      <c r="BG63">
+        <v>74.8552253232</v>
+      </c>
+      <c r="BH63">
+        <v>91.9242211235</v>
+      </c>
+      <c r="BI63">
+        <v>107.9400711688</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64">
@@ -12381,6 +12954,15 @@
       <c r="BF64">
         <v>0</v>
       </c>
+      <c r="BG64">
+        <v>0</v>
+      </c>
+      <c r="BH64">
+        <v>0</v>
+      </c>
+      <c r="BI64">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65">
@@ -12568,6 +13150,15 @@
       <c r="BF65">
         <v>40.170302651</v>
       </c>
+      <c r="BG65">
+        <v>58.623882499</v>
+      </c>
+      <c r="BH65">
+        <v>76.571656111</v>
+      </c>
+      <c r="BI65">
+        <v>93.370780098</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66">
@@ -12755,6 +13346,15 @@
       <c r="BF66">
         <v>92.529795609</v>
       </c>
+      <c r="BG66">
+        <v>0</v>
+      </c>
+      <c r="BH66">
+        <v>0</v>
+      </c>
+      <c r="BI66">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67">
@@ -12942,6 +13542,15 @@
       <c r="BF67">
         <v>54.367380646</v>
       </c>
+      <c r="BG67">
+        <v>64.94725393</v>
+      </c>
+      <c r="BH67">
+        <v>80.330597814</v>
+      </c>
+      <c r="BI67">
+        <v>94.596163937</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68">
@@ -13126,6 +13735,15 @@
       <c r="BF68">
         <v>0</v>
       </c>
+      <c r="BG68">
+        <v>0</v>
+      </c>
+      <c r="BH68">
+        <v>0</v>
+      </c>
+      <c r="BI68">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69">
@@ -13313,6 +13931,15 @@
       <c r="BF69">
         <v>95.013650626</v>
       </c>
+      <c r="BG69">
+        <v>127.480112912</v>
+      </c>
+      <c r="BH69">
+        <v>162.091526286</v>
+      </c>
+      <c r="BI69">
+        <v>194.844537196</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70">
@@ -13500,6 +14127,15 @@
       <c r="BF70">
         <v>46.5057401888</v>
       </c>
+      <c r="BG70">
+        <v>70.9797245953</v>
+      </c>
+      <c r="BH70">
+        <v>0</v>
+      </c>
+      <c r="BI70">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71">
@@ -13684,6 +14320,15 @@
       <c r="BF71">
         <v>78.1632026851</v>
       </c>
+      <c r="BG71">
+        <v>95.82696878260001</v>
+      </c>
+      <c r="BH71">
+        <v>119.295739353</v>
+      </c>
+      <c r="BI71">
+        <v>141.0301472726</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72">
@@ -13871,6 +14516,15 @@
       <c r="BF72">
         <v>0</v>
       </c>
+      <c r="BG72">
+        <v>0</v>
+      </c>
+      <c r="BH72">
+        <v>0</v>
+      </c>
+      <c r="BI72">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73">
@@ -14058,6 +14712,15 @@
       <c r="BF73">
         <v>0</v>
       </c>
+      <c r="BG73">
+        <v>0</v>
+      </c>
+      <c r="BH73">
+        <v>0</v>
+      </c>
+      <c r="BI73">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74">
@@ -14245,6 +14908,15 @@
       <c r="BF74">
         <v>86.913658161</v>
       </c>
+      <c r="BG74">
+        <v>101.916427861</v>
+      </c>
+      <c r="BH74">
+        <v>107.917648646</v>
+      </c>
+      <c r="BI74">
+        <v>127.79899625</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75">
@@ -14432,6 +15104,15 @@
       <c r="BF75">
         <v>77.9781933</v>
       </c>
+      <c r="BG75">
+        <v>101.903279745</v>
+      </c>
+      <c r="BH75">
+        <v>123.107824233</v>
+      </c>
+      <c r="BI75">
+        <v>137.905860639</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76">
@@ -14619,6 +15300,15 @@
       <c r="BF76">
         <v>0</v>
       </c>
+      <c r="BG76">
+        <v>0</v>
+      </c>
+      <c r="BH76">
+        <v>0</v>
+      </c>
+      <c r="BI76">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77">
@@ -14803,6 +15493,15 @@
       <c r="BF77">
         <v>0</v>
       </c>
+      <c r="BG77">
+        <v>0</v>
+      </c>
+      <c r="BH77">
+        <v>0</v>
+      </c>
+      <c r="BI77">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78">
@@ -14989,6 +15688,15 @@
       </c>
       <c r="BF78">
         <v>80.57376613700001</v>
+      </c>
+      <c r="BG78">
+        <v>106.924648905</v>
+      </c>
+      <c r="BH78">
+        <v>138.208306918</v>
+      </c>
+      <c r="BI78">
+        <v>158.930296279</v>
       </c>
     </row>
   </sheetData>

--- a/summary_tracking_complete.xlsx
+++ b/summary_tracking_complete.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BI78"/>
+  <dimension ref="A1:BJ78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -672,6 +672,11 @@
           <t>dist_trav_30min_body_out</t>
         </is>
       </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>Visual_exp</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -868,6 +873,9 @@
       <c r="BI2">
         <v>0</v>
       </c>
+      <c r="BJ2">
+        <v>105</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -1064,6 +1072,9 @@
       <c r="BI3">
         <v>0</v>
       </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -1260,6 +1271,9 @@
       <c r="BI4">
         <v>53.959036928</v>
       </c>
+      <c r="BJ4">
+        <v>155</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -1456,6 +1470,9 @@
       <c r="BI5">
         <v>0</v>
       </c>
+      <c r="BJ5">
+        <v>243</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -1652,6 +1669,9 @@
       <c r="BI6">
         <v>0</v>
       </c>
+      <c r="BJ6">
+        <v>155</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -1848,6 +1868,9 @@
       <c r="BI7">
         <v>0</v>
       </c>
+      <c r="BJ7">
+        <v>1108</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -2041,6 +2064,9 @@
       <c r="BI8">
         <v>0</v>
       </c>
+      <c r="BJ8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -2237,6 +2263,9 @@
       <c r="BI9">
         <v>0</v>
       </c>
+      <c r="BJ9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -2433,6 +2462,9 @@
       <c r="BI10">
         <v>134.850822292</v>
       </c>
+      <c r="BJ10">
+        <v>245</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -2629,6 +2661,9 @@
       <c r="BI11">
         <v>0</v>
       </c>
+      <c r="BJ11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -2822,6 +2857,9 @@
       <c r="BI12">
         <v>0</v>
       </c>
+      <c r="BJ12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -3018,6 +3056,9 @@
       <c r="BI13">
         <v>87.1682587289</v>
       </c>
+      <c r="BJ13">
+        <v>140</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -3214,6 +3255,9 @@
       <c r="BI14">
         <v>0</v>
       </c>
+      <c r="BJ14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -3410,6 +3454,9 @@
       <c r="BI15">
         <v>0</v>
       </c>
+      <c r="BJ15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -3606,6 +3653,9 @@
       <c r="BI16">
         <v>0</v>
       </c>
+      <c r="BJ16">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -3802,6 +3852,9 @@
       <c r="BI17">
         <v>94.83043631629999</v>
       </c>
+      <c r="BJ17">
+        <v>110</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -3998,6 +4051,9 @@
       <c r="BI18">
         <v>0</v>
       </c>
+      <c r="BJ18">
+        <v>294</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -4194,6 +4250,9 @@
       <c r="BI19">
         <v>0</v>
       </c>
+      <c r="BJ19">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -4390,6 +4449,9 @@
       <c r="BI20">
         <v>0</v>
       </c>
+      <c r="BJ20">
+        <v>123</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -4583,6 +4645,9 @@
       <c r="BI21">
         <v>0</v>
       </c>
+      <c r="BJ21">
+        <v>531</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -4776,6 +4841,9 @@
       <c r="BI22">
         <v>85.755232096</v>
       </c>
+      <c r="BJ22">
+        <v>500</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -4969,6 +5037,9 @@
       <c r="BI23">
         <v>156.0485786097</v>
       </c>
+      <c r="BJ23">
+        <v>485</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -5162,6 +5233,9 @@
       <c r="BI24">
         <v>106.651700849</v>
       </c>
+      <c r="BJ24">
+        <v>237</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -5355,6 +5429,9 @@
       <c r="BI25">
         <v>0</v>
       </c>
+      <c r="BJ25">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -5551,6 +5628,9 @@
       <c r="BI26">
         <v>0</v>
       </c>
+      <c r="BJ26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -5747,6 +5827,9 @@
       <c r="BI27">
         <v>0</v>
       </c>
+      <c r="BJ27">
+        <v>289</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -5943,6 +6026,9 @@
       <c r="BI28">
         <v>115.689266338</v>
       </c>
+      <c r="BJ28">
+        <v>205</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -6139,6 +6225,9 @@
       <c r="BI29">
         <v>85.9006444444</v>
       </c>
+      <c r="BJ29">
+        <v>253</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -6335,6 +6424,9 @@
       <c r="BI30">
         <v>97.59974628339999</v>
       </c>
+      <c r="BJ30">
+        <v>193</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -6531,6 +6623,9 @@
       <c r="BI31">
         <v>83.6186979527</v>
       </c>
+      <c r="BJ31">
+        <v>359</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32">
@@ -6727,6 +6822,9 @@
       <c r="BI32">
         <v>109.372537696</v>
       </c>
+      <c r="BJ32">
+        <v>407</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -6923,6 +7021,9 @@
       <c r="BI33">
         <v>0</v>
       </c>
+      <c r="BJ33">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -7119,6 +7220,9 @@
       <c r="BI34">
         <v>155.295083402</v>
       </c>
+      <c r="BJ34">
+        <v>743</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -7315,6 +7419,9 @@
       <c r="BI35">
         <v>0</v>
       </c>
+      <c r="BJ35">
+        <v>350</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -7511,6 +7618,9 @@
       <c r="BI36">
         <v>0</v>
       </c>
+      <c r="BJ36">
+        <v>371</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -7707,6 +7817,9 @@
       <c r="BI37">
         <v>0</v>
       </c>
+      <c r="BJ37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38">
@@ -7903,6 +8016,9 @@
       <c r="BI38">
         <v>130.592298752</v>
       </c>
+      <c r="BJ38">
+        <v>68</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -8099,6 +8215,9 @@
       <c r="BI39">
         <v>127.5684101063</v>
       </c>
+      <c r="BJ39">
+        <v>172</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40">
@@ -8295,6 +8414,9 @@
       <c r="BI40">
         <v>55.375485867</v>
       </c>
+      <c r="BJ40">
+        <v>447</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -8491,6 +8613,9 @@
       <c r="BI41">
         <v>0</v>
       </c>
+      <c r="BJ41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -8687,6 +8812,9 @@
       <c r="BI42">
         <v>0</v>
       </c>
+      <c r="BJ42">
+        <v>136</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -8883,6 +9011,9 @@
       <c r="BI43">
         <v>0</v>
       </c>
+      <c r="BJ43">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -9079,6 +9210,9 @@
       <c r="BI44">
         <v>103.163733472</v>
       </c>
+      <c r="BJ44">
+        <v>549</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45">
@@ -9275,6 +9409,9 @@
       <c r="BI45">
         <v>73.402168129</v>
       </c>
+      <c r="BJ45">
+        <v>132</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46">
@@ -9471,6 +9608,9 @@
       <c r="BI46">
         <v>80.42873317900001</v>
       </c>
+      <c r="BJ46">
+        <v>106</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -9667,6 +9807,9 @@
       <c r="BI47">
         <v>109.044053422</v>
       </c>
+      <c r="BJ47">
+        <v>191</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -9860,6 +10003,9 @@
       <c r="BI48">
         <v>137.560560446</v>
       </c>
+      <c r="BJ48">
+        <v>211</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -10056,6 +10202,9 @@
       <c r="BI49">
         <v>0</v>
       </c>
+      <c r="BJ49">
+        <v>525</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50">
@@ -10252,6 +10401,9 @@
       <c r="BI50">
         <v>0</v>
       </c>
+      <c r="BJ50">
+        <v>89</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -10445,6 +10597,9 @@
       <c r="BI51">
         <v>0</v>
       </c>
+      <c r="BJ51">
+        <v>571</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52">
@@ -10638,6 +10793,9 @@
       <c r="BI52">
         <v>0</v>
       </c>
+      <c r="BJ52">
+        <v>419</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -10831,6 +10989,9 @@
       <c r="BI53">
         <v>0</v>
       </c>
+      <c r="BJ53">
+        <v>64</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54">
@@ -11024,6 +11185,9 @@
       <c r="BI54">
         <v>128.1463967038</v>
       </c>
+      <c r="BJ54">
+        <v>138</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55">
@@ -11217,6 +11381,9 @@
       <c r="BI55">
         <v>0</v>
       </c>
+      <c r="BJ55">
+        <v>690</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56">
@@ -11410,6 +11577,9 @@
       <c r="BI56">
         <v>151.616284415</v>
       </c>
+      <c r="BJ56">
+        <v>281</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57">
@@ -11603,6 +11773,9 @@
       <c r="BI57">
         <v>0</v>
       </c>
+      <c r="BJ57">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58">
@@ -11796,6 +11969,9 @@
       <c r="BI58">
         <v>0</v>
       </c>
+      <c r="BJ58">
+        <v>177</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59">
@@ -11989,6 +12165,9 @@
       <c r="BI59">
         <v>0</v>
       </c>
+      <c r="BJ59">
+        <v>433</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60">
@@ -12182,6 +12361,9 @@
       <c r="BI60">
         <v>0</v>
       </c>
+      <c r="BJ60">
+        <v>311</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -12378,6 +12560,9 @@
       <c r="BI61">
         <v>0</v>
       </c>
+      <c r="BJ61">
+        <v>511</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62">
@@ -12574,6 +12759,9 @@
       <c r="BI62">
         <v>99.15457831800001</v>
       </c>
+      <c r="BJ62">
+        <v>162</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63">
@@ -12767,6 +12955,9 @@
       <c r="BI63">
         <v>107.9400711688</v>
       </c>
+      <c r="BJ63">
+        <v>572</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64">
@@ -12963,6 +13154,9 @@
       <c r="BI64">
         <v>0</v>
       </c>
+      <c r="BJ64">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65">
@@ -13159,6 +13353,9 @@
       <c r="BI65">
         <v>93.370780098</v>
       </c>
+      <c r="BJ65">
+        <v>201</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66">
@@ -13355,6 +13552,9 @@
       <c r="BI66">
         <v>0</v>
       </c>
+      <c r="BJ66">
+        <v>656</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67">
@@ -13551,6 +13751,9 @@
       <c r="BI67">
         <v>94.596163937</v>
       </c>
+      <c r="BJ67">
+        <v>221</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68">
@@ -13744,6 +13947,9 @@
       <c r="BI68">
         <v>0</v>
       </c>
+      <c r="BJ68">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69">
@@ -13940,6 +14146,9 @@
       <c r="BI69">
         <v>194.844537196</v>
       </c>
+      <c r="BJ69">
+        <v>586</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70">
@@ -14136,6 +14345,9 @@
       <c r="BI70">
         <v>0</v>
       </c>
+      <c r="BJ70">
+        <v>532</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71">
@@ -14329,6 +14541,9 @@
       <c r="BI71">
         <v>141.0301472726</v>
       </c>
+      <c r="BJ71">
+        <v>254</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72">
@@ -14525,6 +14740,9 @@
       <c r="BI72">
         <v>0</v>
       </c>
+      <c r="BJ72">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73">
@@ -14721,6 +14939,9 @@
       <c r="BI73">
         <v>0</v>
       </c>
+      <c r="BJ73">
+        <v>884</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74">
@@ -14917,6 +15138,9 @@
       <c r="BI74">
         <v>127.79899625</v>
       </c>
+      <c r="BJ74">
+        <v>256</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75">
@@ -15113,6 +15337,9 @@
       <c r="BI75">
         <v>137.905860639</v>
       </c>
+      <c r="BJ75">
+        <v>255</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76">
@@ -15309,6 +15536,9 @@
       <c r="BI76">
         <v>0</v>
       </c>
+      <c r="BJ76">
+        <v>521</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77">
@@ -15502,6 +15732,9 @@
       <c r="BI77">
         <v>0</v>
       </c>
+      <c r="BJ77">
+        <v>1806</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78">
@@ -15697,6 +15930,9 @@
       </c>
       <c r="BI78">
         <v>158.930296279</v>
+      </c>
+      <c r="BJ78">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
